--- a/Dataset/risultati test.xlsx
+++ b/Dataset/risultati test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="-80" windowWidth="24800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="12840" yWindow="-80" windowWidth="24560" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>n°test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>AUCPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +602,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -836,41 +896,113 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" s="1">
+        <v>-251.24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" s="1">
+        <v>-213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" s="1">
+        <v>-519.15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" s="1">
+        <v>-310.64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" s="1">
+        <v>-287.63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" s="1">
+        <v>-393.74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" s="1">
+        <v>-581.25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" s="1">
+        <v>-305.36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
@@ -998,6 +1130,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Dataset/risultati test.xlsx
+++ b/Dataset/risultati test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="-80" windowWidth="24560" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-80" windowWidth="28740" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>n°test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +196,139 @@
   </si>
   <si>
     <t>0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST LL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST AUROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II BEST AUROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II best aucpr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -612,273 +741,285 @@
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-219.14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-262.07</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-251.24</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-246.35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-393.74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>-425</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>-286.82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-234.46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-310.64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-328.71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-286.88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-238.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-405.98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B16" s="1">
         <v>-296.81</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-492.23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-340.17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-490.1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-327.14600000000002</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-334.1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-328.71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-286.88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-333.25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-219.14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-262.07</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-266.16000000000003</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>341.68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-590.04</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-230.91</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>-545.41999999999996</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
+        <v>-303.13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
       <c r="B18" s="1">
-        <v>-488.38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-287.63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>-275.60000000000002</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14" thickBot="1">
+        <v>-421.76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14" thickBot="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -886,251 +1027,463 @@
         <v>-277.96855698001701</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-308.41000000000003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-255.76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>-357.92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-334.1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-488.38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-208.98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-340.17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>-302.02</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="B29">
+        <v>-325.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-327.14600000000002</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-519.15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>-545.58000000000004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-287.75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-333.25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-230.91</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>341.68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>-461.3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>-505.1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-492.23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-303.95999999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>-275.41000000000003</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>-340.81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-266.16000000000003</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-275.60000000000002</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-305.36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-490.1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-581.25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-590.04</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>-251.24</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-545.41999999999996</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>-262.17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-213</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-519.15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-310.64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-287.63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-393.74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-581.25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-305.36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="1">
+        <v>-548.64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A1:F53">
+    <sortCondition descending="1" ref="D1:D53"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
